--- a/tables/MPD_Ring_Table.xlsx
+++ b/tables/MPD_Ring_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael\R_projects\ithomiini_convergence\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8202DA2-1B7C-4E19-879D-B44D092C7C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9390B23-6627-4C1A-A791-1B9889496F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,15 +196,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>BANJANAM</t>
-  </si>
-  <si>
-    <t>THABENAF</t>
-  </si>
-  <si>
-    <t>TICIDAM</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
@@ -746,6 +737,15 @@
   </si>
   <si>
     <t>Mean null MPD</t>
+  </si>
+  <si>
+    <t>TICIDA-M</t>
+  </si>
+  <si>
+    <t>THABENA-F</t>
+  </si>
+  <si>
+    <t>BANJANA-M</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
   <dimension ref="B2:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,10 +1183,10 @@
         <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>45</v>
@@ -1241,19 +1241,19 @@
         <v>2701</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1270,19 +1270,19 @@
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -1299,24 +1299,24 @@
         <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="J6" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -1328,19 +1328,19 @@
         <v>903</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="J7" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1357,19 +1357,19 @@
         <v>171</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="J8" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1415,19 +1415,19 @@
         <v>595</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1444,19 +1444,19 @@
         <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="J11" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1473,19 +1473,19 @@
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="J12" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1502,19 +1502,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="J13" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1531,19 +1531,19 @@
         <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -1560,19 +1560,19 @@
         <v>528</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="J15" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1589,19 +1589,19 @@
         <v>136</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="J16" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1618,19 +1618,19 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="J17" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1647,19 +1647,19 @@
         <v>1081</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="J18" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1676,19 +1676,19 @@
         <v>351</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J19" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1734,19 +1734,19 @@
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="J21" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1763,19 +1763,19 @@
         <v>1953</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="J22" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1792,19 +1792,19 @@
         <v>190</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="J23" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1821,19 +1821,19 @@
         <v>6</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="J24" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1850,19 +1850,19 @@
         <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="J25" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1879,19 +1879,19 @@
         <v>1540</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="J26" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1908,19 +1908,19 @@
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="J27" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1937,19 +1937,19 @@
         <v>91</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="J28" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1966,19 +1966,19 @@
         <v>66</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="J29" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1995,19 +1995,19 @@
         <v>78</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="J30" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -2024,19 +2024,19 @@
         <v>105</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -2053,19 +2053,19 @@
         <v>120</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="J32" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -2082,19 +2082,19 @@
         <v>703</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="J33" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -2111,19 +2111,19 @@
         <v>21</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="J34" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -2140,19 +2140,19 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="J35" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -2169,19 +2169,19 @@
         <v>36</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="J36" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -2227,19 +2227,19 @@
         <v>36</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -2256,19 +2256,19 @@
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="J39" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -2285,19 +2285,19 @@
         <v>28</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="J40" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -2314,24 +2314,24 @@
         <v>153</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J41" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>48</v>
@@ -2343,19 +2343,19 @@
         <v>45</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="J42" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -2372,24 +2372,24 @@
         <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="J43" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>48</v>
@@ -2401,19 +2401,19 @@
         <v>28</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="J44" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -2430,19 +2430,19 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="J45" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
